--- a/machine_learning/Confusion_Matrix.xlsx
+++ b/machine_learning/Confusion_Matrix.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>P+</t>
   </si>
@@ -51,6 +52,27 @@
   </si>
   <si>
     <t>Negative Predictive Value (NPV)</t>
+  </si>
+  <si>
+    <t>Accuracy:</t>
+  </si>
+  <si>
+    <t>Sensitivity / Recall / TPR:</t>
+  </si>
+  <si>
+    <t>Specificity/ TNR</t>
+  </si>
+  <si>
+    <t>Precision / PPV</t>
+  </si>
+  <si>
+    <t>Negative Predictive Value</t>
+  </si>
+  <si>
+    <t>False Positive Rate :</t>
+  </si>
+  <si>
+    <t>Error Rate :</t>
   </si>
 </sst>
 </file>
@@ -86,13 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L12:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+    <sheetView topLeftCell="H8" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +508,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C5,D6)/SUM(C5,C6,D5,D6)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <f>SUM(D5,C6)/SUM(C5:D6)</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>C5/SUM(C5,D5)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <f>D6/SUM(D6,C6)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <f>1-G6</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <f>C5/SUM(C5,C6)</f>
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="1">
+        <f>D6/SUM(D5,D6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>